--- a/datasets/glove-25-euclidean-true-labels.xlsx
+++ b/datasets/glove-25-euclidean-true-labels.xlsx
@@ -1576,7 +1576,7 @@
   669764  962685  578476  209356  498430 1174585  782309   10006  377818
   168012   25758 1065382  266648  528888  914184  991767  488566  308178
    20609  209285 1124704  380367  405384  659143 1122448  141352  307426
-  411533 1068912  580255 1158785  210609  584134  283312  680198 1026805
+  411533 1068912  580255 1158785  210609  584134  283312 1026805  680198
   626356  809321   18172  729186  299214   29057   46088  523566  968200
  1024778  496566  840242   23182  835527  527779  768157  150834  292685
   801143 1017663  486764  869332  292492  918583 1152306 1157031  343606
@@ -11495,7 +11495,7 @@
           <t>[2.0188 2.146  2.1501 2.1537 2.1923 2.2217 2.2245 2.2767 2.2811 2.2835
  2.2978 2.3508 2.4133 2.4282 2.4362 2.4432 2.4468 2.4473 2.4485 2.4507
  2.452  2.4573 2.4647 2.4737 2.4766 2.4783 2.4857 2.4912 2.5013 2.5055
- 2.5064 2.5089 2.5168 2.5204 2.523  2.5239 2.5267 2.5381 2.5412 2.5453
+ 2.5064 2.5089 2.5168 2.5204 2.523  2.5239 2.5267 2.5381 2.5412 2.5452
  2.5475 2.5601 2.5626 2.5626 2.5727 2.5748 2.5779 2.5791 2.5848 2.5876
  2.5954 2.596  2.5996 2.5999 2.6002 2.6014 2.6048 2.6058 2.6093 2.6102
  2.6106 2.6126 2.6174 2.6194 2.6197 2.6198 2.62   2.6228 2.6235 2.6292
@@ -16113,7 +16113,7 @@
       <c r="C449" t="inlineStr">
         <is>
           <t>[2.3517 2.5428 2.5541 2.6048 2.6246 2.6265 2.6455 2.6522 2.6569 2.666
- 2.7358 2.7369 2.7905 2.7909 2.8001 2.8037 2.8198 2.8217 2.8255 2.837
+ 2.7359 2.7369 2.7905 2.7909 2.8001 2.8037 2.8198 2.8217 2.8255 2.837
  2.8397 2.8414 2.8586 2.8625 2.87   2.8713 2.873  2.88   2.8803 2.8848
  2.888  2.8906 2.8993 2.8997 2.9116 2.9268 2.9308 2.9309 2.9338 2.9406
  2.9457 2.9468 2.9511 2.9543 2.9565 2.9711 2.9731 2.9743 2.9759 2.9789
@@ -18815,7 +18815,7 @@
  3.5624 3.5647 3.5664 3.5673 3.5678 3.5684 3.5726 3.573  3.5752 3.5784
  3.5823 3.5845 3.586  3.5912 3.5946 3.5973 3.5989 3.5996 3.6028 3.6047
  3.6091 3.6124 3.6136 3.6143 3.6145 3.6166 3.6181 3.6194 3.6222 3.6249
- 3.6301 3.6343 3.6359 3.6371 3.6384 3.6415 3.6435 3.6461 3.6475 3.648
+ 3.6301 3.6343 3.6359 3.6371 3.6383 3.6415 3.6435 3.6461 3.6475 3.648
  3.6491 3.6495 3.6495 3.6511 3.6529 3.6533 3.6544 3.659  3.6638 3.6649]</t>
         </is>
       </c>
@@ -21089,7 +21089,7 @@
  3.5832 3.5833 3.5927 3.6045 3.6063 3.6126 3.6331 3.641  3.6664 3.6776
  3.6869 3.7027 3.7036 3.7081 3.7286 3.7646 3.7699 3.7756 3.7776 3.78
  3.7901 3.7973 3.7983 3.8002 3.8049 3.8052 3.8089 3.8149 3.8181 3.8194
- 3.8203 3.8306 3.833  3.8379 3.8391 3.8427 3.8436 3.8437 3.8441 3.8495
+ 3.8203 3.8305 3.833  3.8379 3.8391 3.8427 3.8436 3.8437 3.8441 3.8495
  3.8497 3.8549 3.8553 3.8581 3.8589 3.8597 3.8638 3.8704 3.8732 3.8768
  3.878  3.8795 3.8806 3.8821 3.8832 3.8916 3.8923 3.8927 3.8929 3.8971]</t>
         </is>
@@ -22908,7 +22908,7 @@
  2.2107 2.2271 2.2295 2.2316 2.2332 2.2348 2.2488 2.2516 2.2608 2.2643
  2.2647 2.2674 2.2699 2.2708 2.2738 2.2743 2.2785 2.2795 2.2796 2.2804
  2.2831 2.2833 2.2849 2.2866 2.2924 2.2934 2.2935 2.2939 2.297  2.3006
- 2.3036 2.3051 2.3058 2.3089 2.3103 2.3108 2.3112 2.3113 2.3121 2.3126
+ 2.3036 2.3051 2.3058 2.3089 2.3103 2.3108 2.3112 2.3112 2.3121 2.3126
  2.3201 2.3241 2.3257 2.3272 2.3275 2.3309 2.3322 2.3326 2.3351 2.3383
  2.3469 2.3507 2.3531 2.3574 2.3574 2.3639 2.376  2.3802 2.3817 2.3819
  2.3845 2.3868 2.3876 2.3968 2.3998 2.4043 2.4056 2.4066 2.4078 2.4085]</t>
@@ -25850,7 +25850,7 @@
  2.4036 2.404  2.409  2.4133 2.4166 2.4214 2.422  2.424  2.4246 2.4265
  2.4267 2.4318 2.4335 2.4339 2.4365 2.438  2.4382 2.4384 2.4439 2.4446
  2.4458 2.447  2.4488 2.4509 2.4515 2.4515 2.4533 2.4593 2.4601 2.4603
- 2.4615 2.4618 2.465  2.4675 2.4696 2.4717 2.4725 2.4756 2.4767 2.4778
+ 2.4615 2.4618 2.465  2.4675 2.4697 2.4717 2.4725 2.4756 2.4767 2.4778
  2.4784 2.4794 2.4809 2.481  2.4843 2.489  2.4898 2.4905 2.4909 2.4911]</t>
         </is>
       </c>
@@ -27164,7 +27164,7 @@
  1124000  496140 1004337  539956  457588  510387 1135314  244474  827909
   837422  982302   67341  389420  119110  275751  779767  642577  540853
   947147  506602  999380  648086  691175  390421  200506  986874  930588
-  384270  544349 1051286  616818  600923  356792  918869  334565  672184
+  384270  544349 1051286  616818  600923  918869  356792  334565  672184
  1182330  838601  293946 1070613   24923  510940  268524  424903 1092302
  1113112  158359    9873  632241  495752  178885  494769  538042  242471
   734858]</t>
@@ -27493,7 +27493,7 @@
  2.0271 2.0461 2.0463 2.0516 2.0597 2.06   2.062  2.0627 2.063  2.0688
  2.0759 2.0777 2.078  2.0791 2.0817 2.0829 2.0843 2.0902 2.0916 2.0932
  2.0974 2.0975 2.0979 2.1018 2.1048 2.1061 2.1104 2.1158 2.1163 2.1172
- 2.123  2.1254 2.1255 2.1268 2.1302 2.1305 2.1353 2.1365 2.1387 2.1439
+ 2.123  2.1254 2.1255 2.1268 2.1302 2.1305 2.1353 2.1366 2.1387 2.1439
  2.1452 2.1479 2.1482 2.1506 2.153  2.1535 2.1585 2.1613 2.1614 2.1637
  2.1648 2.1658 2.1673 2.1717 2.1722 2.1729 2.1745 2.1814 2.1834 2.1835
  2.1875 2.1886 2.1888 2.191  2.1926 2.1928 2.1943 2.1944 2.1965 2.1965]</t>
@@ -27563,7 +27563,7 @@
  2.8853 2.8915 2.8952 2.9002 2.9013 2.9059 2.9064 2.9069 2.9073 2.9099
  2.9114 2.9145 2.9159 2.917  2.9237 2.9272 2.9383 2.9456 2.9459 2.9464
  2.9476 2.9484 2.9497 2.9546 2.9587 2.9588 2.9615 2.9622 2.9632 2.9644
- 2.9646 2.9654 2.966  2.9661 2.9679 2.9687 2.9727 2.9799 2.9844 2.989
+ 2.9645 2.9654 2.966  2.9661 2.9679 2.9687 2.9727 2.9799 2.9844 2.989
  2.989  2.9907 2.992  2.9953 2.9959 2.9994 2.9998 3.0006 3.0054 3.0054
  3.0068 3.0071 3.0071 3.009  3.01   3.0107 3.0133 3.0137 3.015  3.0156
  3.0172 3.0193 3.0213 3.0215 3.0218 3.0225 3.028  3.03   3.0308 3.0311]</t>
@@ -28648,7 +28648,7 @@
  3.8071 3.8228 3.8269 3.8362 3.8367 3.8368 3.8481 3.8527 3.8604 3.8683
  3.8724 3.8773 3.8977 3.9    3.9009 3.9068 3.9073 3.909  3.9123 3.9273
  3.93   3.9315 3.9361 3.9391 3.9401 3.9406 3.9459 3.9468 3.96   3.9682
- 3.9688 3.9758 3.9763 3.9827 3.985  3.9895 3.9925 3.9934 3.9936 3.9938
+ 3.9688 3.9758 3.9764 3.9827 3.985  3.9895 3.9925 3.9934 3.9936 3.9938
  3.994  3.9953 3.9965 4.0039 4.0088 4.0136 4.0154 4.018  4.0262 4.038
  4.0436 4.0473 4.0488 4.0494 4.0509 4.0557 4.0586 4.0636 4.065  4.0664
  4.0676 4.0689 4.0738 4.0742 4.0743 4.0761 4.0782 4.0816 4.0832 4.0862]</t>
@@ -29246,7 +29246,7 @@
  1.8222 1.8248 1.8256 1.8262 1.8285 1.8293 1.8295 1.8313 1.8315 1.8328
  1.8351 1.8354 1.8379 1.8379 1.8388 1.8404 1.8451 1.8458 1.8527 1.8541
  1.8542 1.8558 1.8576 1.8604 1.8611 1.8626 1.865  1.865  1.8678 1.8683
- 1.8683 1.8683 1.8695 1.8696 1.8697 1.8704 1.8711 1.8721 1.8722 1.8749]</t>
+ 1.8683 1.8683 1.8695 1.8695 1.8697 1.8704 1.8711 1.8721 1.8722 1.8749]</t>
         </is>
       </c>
     </row>
@@ -32744,7 +32744,7 @@
  4.7971 4.8103 4.8104 4.8136 4.8178 4.8245 4.8281 4.8294 4.8315 4.8356
  4.8388 4.8412 4.8515 4.8597 4.8639 4.8644 4.8646 4.8682 4.8688 4.869
  4.8704 4.8707 4.8714 4.8732 4.8834 4.8874 4.8937 4.8948 4.8983 4.9065
- 4.9065 4.9076 4.9082 4.91   4.9222 4.9281 4.9283 4.9291 4.9303 4.9303
+ 4.9065 4.9076 4.9082 4.91   4.9222 4.9281 4.9283 4.929  4.9303 4.9303
  4.9308 4.934  4.9385 4.9387 4.9397 4.9401 4.9416 4.9419 4.9497 4.9504
  4.9537 4.9539 4.9546 4.9573 4.9581 4.9589 4.9601 4.9614 4.9618 4.966 ]</t>
         </is>
@@ -34908,7 +34908,7 @@
       <c r="C986" t="inlineStr">
         <is>
           <t>[3.591  3.6482 3.685  3.7341 3.8161 3.8512 3.9282 3.9397 3.9428 3.9458
- 3.9471 4.0125 4.0198 4.0373 4.0561 4.0643 4.0674 4.0747 4.0796 4.0955
+ 3.947  4.0125 4.0198 4.0373 4.0561 4.0643 4.0674 4.0747 4.0796 4.0955
  4.0969 4.0981 4.0988 4.1186 4.119  4.1253 4.1352 4.1395 4.1477 4.1564
  4.1565 4.1616 4.1673 4.1794 4.1801 4.1837 4.1856 4.1902 4.1955 4.1986
  4.199  4.2049 4.2058 4.2074 4.2089 4.212  4.2126 4.2147 4.218  4.2235
